--- a/biology/Zoologie/Imantodes_cenchoa/Imantodes_cenchoa.xlsx
+++ b/biology/Zoologie/Imantodes_cenchoa/Imantodes_cenchoa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Imantodes cenchoa  est une espèce de serpents de la famille des Dipsadidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Imantodes cenchoa  est une espèce de serpents de la famille des Dipsadidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce serpent est très fin, il peut mesurer jusqu'à 120 cm de long, le corps est comprimé latéralement. Les yeux sont très grands et la pupille est verticale. Le motif est caractérisé par des losanges brun foncé le long de la ligne dorsale. Imantodes cenchoa est venimeux opistoglyphe, cependant il est totalement inoffensif pour l'homme, son venin sert uniquement à tuer ses proies[2]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce serpent est très fin, il peut mesurer jusqu'à 120 cm de long, le corps est comprimé latéralement. Les yeux sont très grands et la pupille est verticale. Le motif est caractérisé par des losanges brun foncé le long de la ligne dorsale. Imantodes cenchoa est venimeux opistoglyphe, cependant il est totalement inoffensif pour l'homme, son venin sert uniquement à tuer ses proies. 
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce possède une large aire de répartition, en Amérique du sud et en Amérique centrale. On la rencontre[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce possède une large aire de répartition, en Amérique du sud et en Amérique centrale. On la rencontre :
 dans le sud du Mexique ;
 en Amérique centrale ;
 en Colombie ;
@@ -586,9 +602,11 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce serpent habite les forêts tropicales humides. Cette espèce est strictement nocturne et arboricole, il se déplace lentement dans la végétation pour chasser les lézards endormis qui représentent la majorité de son alimentation[3]. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce serpent habite les forêts tropicales humides. Cette espèce est strictement nocturne et arboricole, il se déplace lentement dans la végétation pour chasser les lézards endormis qui représentent la majorité de son alimentation. 
 </t>
         </is>
       </c>
@@ -617,9 +635,11 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (3 septembre 2013)[4] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (3 septembre 2013) :
 Imantodes cenchoa cenchoa (Linnaeus, 1758)
 Imantodes cenchoa leucomelas (Cope, 1861)
 Imantodes cenchoa semifasciatus (Cope, 1894)</t>
@@ -650,7 +670,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Cope, 1861 : Contributions to the ophiology of Lower California, Mexico and Central America. Proceedings of the Academy of Natural Sciences of Philadelphia, vol. 13, p. 292-306 (texte intégral).
 Cope, 1894 :  On the species of Himantodes Dumeril and Bibron. The American naturalist, vol. 28, p. 612-614 (texte intégral).
